--- a/dict/suffix.xlsx
+++ b/dict/suffix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masayukikishi/Dropbox (Personal)/masayuki_kishi/repositories/create_names_v2/dict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E999421-6B94-7044-96D2-F3FE9443A5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A21461C-BF88-0543-B1AC-6668C4587FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{01DC39B0-FDC1-F94E-B60A-7270ED523722}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="253">
   <si>
     <t>meaning</t>
   </si>
@@ -776,15 +776,6 @@
   </si>
   <si>
     <t>only words that end with l (with or without vowel after) last vowel needs to be removed</t>
-  </si>
-  <si>
-    <t>keyword_user_score</t>
-  </si>
-  <si>
-    <t>keyword_wiki_score</t>
-  </si>
-  <si>
-    <t>keyword_total_score</t>
   </si>
   <si>
     <t>keyword</t>
@@ -1172,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EAC340-C62A-A948-A440-D672938D6D5F}">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1190,17 +1181,15 @@
     <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="75.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1212,28 +1201,19 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1256,22 +1236,13 @@
         <v>8</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1297,17 +1268,8 @@
         <v>9</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1330,19 +1292,10 @@
         <v>8</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1368,17 +1321,8 @@
         <v>9</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1401,22 +1345,13 @@
         <v>8</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J6" t="s">
         <v>28</v>
       </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1439,19 +1374,10 @@
         <v>8</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1474,19 +1400,10 @@
         <v>37</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1509,19 +1426,10 @@
         <v>37</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1544,19 +1452,10 @@
         <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1582,17 +1481,8 @@
         <v>9</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1615,19 +1505,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1650,22 +1531,13 @@
         <v>15</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J13" t="s">
         <v>28</v>
       </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1688,19 +1560,10 @@
         <v>15</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1723,19 +1586,10 @@
         <v>8</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1758,19 +1612,10 @@
         <v>8</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1793,19 +1638,10 @@
         <v>8</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1828,19 +1664,10 @@
         <v>37</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1863,22 +1690,13 @@
         <v>8</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J19" t="s">
         <v>28</v>
       </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1901,22 +1719,13 @@
         <v>15</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J20" t="s">
         <v>28</v>
       </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1939,19 +1748,10 @@
         <v>8</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1974,22 +1774,13 @@
         <v>8</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J22" t="s">
         <v>28</v>
       </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -2012,22 +1803,13 @@
         <v>15</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J23" t="s">
         <v>28</v>
       </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -2050,22 +1832,13 @@
         <v>15</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J24" t="s">
         <v>28</v>
       </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -2088,22 +1861,13 @@
         <v>37</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J25" t="s">
         <v>104</v>
       </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -2126,19 +1890,10 @@
         <v>8</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -2161,22 +1916,13 @@
         <v>8</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J27" t="s">
         <v>28</v>
       </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -2202,17 +1948,8 @@
         <v>9</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -2235,22 +1972,13 @@
         <v>8</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J29" t="s">
         <v>28</v>
       </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2273,22 +2001,13 @@
         <v>8</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J30" t="s">
         <v>122</v>
       </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2311,19 +2030,10 @@
         <v>8</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2346,19 +2056,10 @@
         <v>8</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2381,22 +2082,13 @@
         <v>8</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J33" t="s">
         <v>28</v>
       </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2419,22 +2111,13 @@
         <v>8</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J34" t="s">
         <v>28</v>
       </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2457,22 +2140,13 @@
         <v>8</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J35" t="s">
         <v>28</v>
       </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2495,22 +2169,13 @@
         <v>15</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J36" t="s">
         <v>143</v>
       </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2533,22 +2198,13 @@
         <v>15</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J37" t="s">
         <v>147</v>
       </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2571,22 +2227,13 @@
         <v>15</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J38" t="s">
         <v>151</v>
       </c>
-      <c r="K38">
-        <v>2</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2609,19 +2256,10 @@
         <v>8</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K39">
-        <v>2</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2644,22 +2282,13 @@
         <v>8</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J40" t="s">
         <v>28</v>
       </c>
-      <c r="K40">
-        <v>2</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2682,22 +2311,13 @@
         <v>8</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J41" t="s">
         <v>163</v>
       </c>
-      <c r="K41">
-        <v>2</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -2720,19 +2340,10 @@
         <v>8</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K42">
-        <v>2</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -2755,19 +2366,10 @@
         <v>37</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K43">
-        <v>2</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -2790,19 +2392,10 @@
         <v>8</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K44">
-        <v>2</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -2825,22 +2418,13 @@
         <v>8</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J45" t="s">
         <v>180</v>
       </c>
-      <c r="K45">
-        <v>2</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -2863,22 +2447,13 @@
         <v>8</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J46" t="s">
         <v>28</v>
       </c>
-      <c r="K46">
-        <v>2</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -2901,19 +2476,10 @@
         <v>8</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K47">
-        <v>2</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -2936,22 +2502,13 @@
         <v>15</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J48" t="s">
         <v>28</v>
       </c>
-      <c r="K48">
-        <v>2</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -2974,19 +2531,10 @@
         <v>15</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K49">
-        <v>2</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -3009,19 +2557,10 @@
         <v>8</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K50">
-        <v>2</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -3044,22 +2583,13 @@
         <v>8</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J51" t="s">
         <v>203</v>
       </c>
-      <c r="K51">
-        <v>2</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -3082,22 +2612,13 @@
         <v>37</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J52" t="s">
         <v>207</v>
       </c>
-      <c r="K52">
-        <v>2</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -3120,22 +2641,13 @@
         <v>37</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J53" t="s">
         <v>212</v>
       </c>
-      <c r="K53">
-        <v>2</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -3158,22 +2670,13 @@
         <v>37</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J54" t="s">
         <v>217</v>
       </c>
-      <c r="K54">
-        <v>2</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -3196,22 +2699,13 @@
         <v>15</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J55" t="s">
         <v>28</v>
       </c>
-      <c r="K55">
-        <v>2</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -3234,19 +2728,10 @@
         <v>8</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K56">
-        <v>2</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -3269,22 +2754,13 @@
         <v>37</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J57" t="s">
         <v>227</v>
       </c>
-      <c r="K57">
-        <v>2</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -3307,22 +2783,13 @@
         <v>37</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J58" t="s">
         <v>231</v>
       </c>
-      <c r="K58">
-        <v>2</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -3345,22 +2812,13 @@
         <v>8</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J59" t="s">
         <v>28</v>
       </c>
-      <c r="K59">
-        <v>2</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -3383,22 +2841,13 @@
         <v>15</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J60" t="s">
         <v>28</v>
       </c>
-      <c r="K60">
-        <v>2</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -3421,22 +2870,13 @@
         <v>37</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J61" t="s">
         <v>28</v>
       </c>
-      <c r="K61">
-        <v>2</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -3459,19 +2899,10 @@
         <v>37</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J62" t="s">
         <v>246</v>
-      </c>
-      <c r="K62">
-        <v>2</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/dict/suffix.xlsx
+++ b/dict/suffix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masayukikishi/Dropbox (Personal)/masayuki_kishi/repositories/create_names_v2/dict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A21461C-BF88-0543-B1AC-6668C4587FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D224AD-7E24-7F42-9C2A-77C70A202946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{01DC39B0-FDC1-F94E-B60A-7270ED523722}"/>
   </bookViews>
@@ -793,7 +793,7 @@
     <t>s</t>
   </si>
   <si>
-    <t>Keyword shortlist (insert "s")</t>
+    <t>shortlist</t>
   </si>
 </sst>
 </file>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EAC340-C62A-A948-A440-D672938D6D5F}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1179,7 +1179,7 @@
     <col min="6" max="6" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
     <col min="10" max="10" width="75.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
